--- a/src/test/resources/testdata/HrmsTestData.xlsx
+++ b/src/test/resources/testdata/HrmsTestData.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/547aa28b94d2e027/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F1F22B80-1D10-4EE1-AB65-3F87A64E63BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{786B6465-FD2D-4C42-AC0D-DFD107536D85}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CB7B5073-AE23-4993-8520-FA2C1F8DFABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0CA0A0E-E6BF-4C3B-9857-4C715AB58E4D}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23304" windowHeight="13224" xr2:uid="{B0CA0A0E-E6BF-4C3B-9857-4C715AB58E4D}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeLoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:R15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -436,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5386E9E7-0819-4D0E-9CFB-E34A17E1AA3C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,6 +488,7 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
